--- a/successrate.xlsx
+++ b/successrate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\Desktop\Projects\artiPHISHial\artiPHISHial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569125EC-1C5B-4CA6-A1AD-49CAA7BC1365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEC54EB-880F-4E6B-9D8C-683AE72A05BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C6B0C3AB-076A-4DF2-8FF3-04300A1EF52D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Success rate</t>
   </si>
@@ -155,17 +155,35 @@
     <t>css error</t>
   </si>
   <si>
-    <t>(just wen remember me is klicked)</t>
-  </si>
-  <si>
     <t>unsuported browser</t>
+  </si>
+  <si>
+    <t>https://www.fahrschule-sommer.at/online-anmeldung/</t>
+  </si>
+  <si>
+    <t>https://portswigger.net/users</t>
+  </si>
+  <si>
+    <t>https://idp.sans.org/</t>
+  </si>
+  <si>
+    <t>https://login.post.at/</t>
+  </si>
+  <si>
+    <t>https://www.klarna.com/us/</t>
+  </si>
+  <si>
+    <t>https://de.quora.com/</t>
+  </si>
+  <si>
+    <t>https://www.tunecore.de/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,8 +219,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,12 +243,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,15 +275,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -580,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA715F19-765E-4DB8-A203-08CA2EE0B773}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +763,7 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -812,7 +833,7 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,9 +845,7 @@
         <v>38</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -854,7 +873,7 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -867,6 +886,69 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -889,8 +971,9 @@
     <hyperlink ref="A27" r:id="rId17" xr:uid="{8E25050C-95D1-4AF8-B790-1025EFF4653E}"/>
     <hyperlink ref="A28" r:id="rId18" xr:uid="{B25E289E-0776-427A-BF86-8F4A9D92C662}"/>
     <hyperlink ref="A29" r:id="rId19" xr:uid="{F1FC2C5A-74E4-44BF-BD34-EA4336CDA19C}"/>
+    <hyperlink ref="A33" r:id="rId20" xr:uid="{2FFCD5B2-BAE4-49F8-BE1F-34A796D1A10A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>